--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>815671.5680037544</v>
+        <v>752147.4620457145</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624706</v>
+        <v>236428.331398364</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830212</v>
+        <v>9662474.503279343</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8093437.458570886</v>
+        <v>8707874.164235318</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="3">
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23.95561967255922</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>29.05241763862477</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>244.5627323611424</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>224.7489589551625</v>
       </c>
       <c r="V5" t="n">
-        <v>244.5627323611424</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>204.7150910205805</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.11217426453303</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>244.5627323611424</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.59830597394804</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>263.2420339516666</v>
+        <v>56.31449141872268</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2420339516666</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>263.2420339516666</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8635835046278</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>158.6126308574896</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>159.8350691069749</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>57.44045292477218</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>118.2255273839242</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>26.64360395382512</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.915442650592</v>
       </c>
       <c r="F13" t="n">
-        <v>41.751008370397</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>162.0432948109163</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>279.8825494539798</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>196.889762398448</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
         <v>225.8879277888686</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.275596830496642</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>125.3159016295659</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>291.2524375308594</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.1011571445228</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>120.0376793376487</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>127.7871454939601</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>101.7806877295489</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.1560086992561</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>203.8109656994587</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>113.1460968518022</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>61.64114297001702</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>193.1441991023018</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>24.30290789703351</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>90.92867953959502</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>54.3792467551144</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>43.31785343913925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,16 +3034,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3567277916629</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>294.1602297043704</v>
       </c>
     </row>
     <row r="33">
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>388.2361579131147</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.75685339834061</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>47.33907408158106</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.63926978364032</v>
+        <v>8.389005322401447</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>210.7855413993644</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>280.103041354394</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>92.39479380343629</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>243.9223155524618</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>825.6800813726991</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.38115216564972</v>
+        <v>839.9654209202833</v>
       </c>
       <c r="C3" t="n">
-        <v>49.38115216564972</v>
+        <v>815.7678252914357</v>
       </c>
       <c r="D3" t="n">
-        <v>49.38115216564972</v>
+        <v>666.8334156301844</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>291.3393440954744</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>838.129241226138</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.38115216564972</v>
+        <v>1008.180757940351</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>277.4018832396551</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>277.4018832396551</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>277.4018832396551</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E5" t="n">
-        <v>277.4018832396551</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
-        <v>30.36882024860222</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>30.36882024860222</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>30.36882024860222</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>30.36882024860222</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>978.2509294445696</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>978.2509294445696</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U5" t="n">
-        <v>978.2509294445696</v>
+        <v>2293.952452872632</v>
       </c>
       <c r="V5" t="n">
-        <v>731.2178664535166</v>
+        <v>1962.889565529061</v>
       </c>
       <c r="W5" t="n">
-        <v>524.4349462307081</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="X5" t="n">
-        <v>524.4349462307081</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y5" t="n">
-        <v>277.4018832396551</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.56501858889139</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>377.8476075409624</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>619.9647125784934</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>723.7203651970592</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>723.7203651970592</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>907.8577401332358</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>937.733581702617</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>937.733581702617</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>937.733581702617</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>709.5104885766409</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>474.3583803448983</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>227.3253173538453</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>227.3253173538453</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.56501858889139</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V7" t="n">
-        <v>158.0312465334349</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1052.968135806666</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="C8" t="n">
-        <v>787.0670914110435</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>521.1660470154206</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>255.2650026197978</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>255.2650026197978</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>255.2650026197978</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806666</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806666</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>1052.968135806666</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1052.968135806666</v>
+        <v>1683.829970582156</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195.5123919972604</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613333</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109958</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231457</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>782.8821178352956</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>1043.295181927788</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>892.7533571627375</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>657.6012489309949</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>403.3638922027932</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>195.5123919972604</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>195.5123919972604</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706535</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706535</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706535</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706535</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706535</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>670.1083246864625</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>670.1083246864625</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>670.1083246864625</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706535</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706535</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.1711973675267</v>
+        <v>1371.274936282423</v>
       </c>
       <c r="C11" t="n">
-        <v>412.2086804271149</v>
+        <v>1002.312419342012</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036444</v>
+        <v>1002.312419342012</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
@@ -5047,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2615.207670282225</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2615.207670282225</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2615.207670282225</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.144782938654</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W11" t="n">
-        <v>1931.37612766854</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.91036940746</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.771037431648</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C13" t="n">
-        <v>559.1928012785273</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D13" t="n">
-        <v>559.1928012785273</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="E13" t="n">
-        <v>559.1928012785273</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5238,13 +5238,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1595.875667274026</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C14" t="n">
-        <v>1595.875667274026</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.875667274026</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
@@ -5287,7 +5287,7 @@
         <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
         <v>1836.345445977174</v>
@@ -5308,22 +5308,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2533.46899524962</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2279.707209887711</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V14" t="n">
-        <v>1948.644322544141</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W14" t="n">
-        <v>1595.875667274026</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X14" t="n">
-        <v>1595.875667274026</v>
+        <v>1589.274337445152</v>
       </c>
       <c r="Y14" t="n">
-        <v>1595.875667274026</v>
+        <v>1199.13500546934</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5363,19 +5363,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5387,13 +5387,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5457,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U16" t="n">
-        <v>108.9687959810045</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V16" t="n">
-        <v>108.9687959810045</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W16" t="n">
-        <v>108.9687959810045</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1704.527073573122</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C17" t="n">
-        <v>1335.56455663271</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D17" t="n">
-        <v>977.2988580259596</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E17" t="n">
-        <v>591.5106054277153</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>180.5247006381077</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>180.5247006381077</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>2057.295728843236</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W17" t="n">
-        <v>1704.527073573122</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X17" t="n">
-        <v>1704.527073573122</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y17" t="n">
-        <v>1704.527073573122</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.7439769897445</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>530.8077940618376</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>699.7439769897445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>699.7439769897445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>699.7439769897445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U19" t="n">
-        <v>699.7439769897445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V19" t="n">
-        <v>699.7439769897445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W19" t="n">
-        <v>699.7439769897445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X19" t="n">
-        <v>699.7439769897445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.7439769897445</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>833.8914035503838</v>
+        <v>962.1194880117293</v>
       </c>
       <c r="C20" t="n">
-        <v>464.928886609972</v>
+        <v>593.1569710713177</v>
       </c>
       <c r="D20" t="n">
-        <v>464.928886609972</v>
+        <v>593.1569710713177</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>593.1569710713177</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036444</v>
+        <v>593.1569710713177</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>175.1931629695046</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>175.1931629695046</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036444</v>
@@ -5758,7 +5758,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2336.864989121511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2336.864989121511</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V20" t="n">
-        <v>2336.864989121511</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W20" t="n">
-        <v>1984.096333851397</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X20" t="n">
-        <v>1610.630575590317</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y20" t="n">
-        <v>1220.491243614505</v>
+        <v>1348.719328075851</v>
       </c>
     </row>
     <row r="21">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>325.6879402326642</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C22" t="n">
-        <v>156.7517573047573</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
         <v>53.94298182036444</v>
@@ -5940,22 +5940,22 @@
         <v>728.1289842064341</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064341</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064341</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064341</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064341</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064341</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y22" t="n">
-        <v>507.336405062904</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>944.4614752479201</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C23" t="n">
-        <v>944.4614752479201</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D23" t="n">
-        <v>586.1957766411697</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E23" t="n">
-        <v>586.1957766411697</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F23" t="n">
-        <v>586.1957766411697</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G23" t="n">
-        <v>168.2319685393566</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>168.2319685393566</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036444</v>
@@ -5992,10 +5992,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>488.3016257164451</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>488.3016257164451</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036444</v>
@@ -6168,31 +6168,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>488.3016257164451</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>488.3016257164451</v>
+        <v>571.1061430638138</v>
       </c>
       <c r="U25" t="n">
-        <v>488.3016257164451</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V25" t="n">
-        <v>488.3016257164451</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W25" t="n">
-        <v>488.3016257164451</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
-        <v>488.3016257164451</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>488.3016257164451</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1626.94664591678</v>
+        <v>833.8914035503838</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2270.8477632545</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>2017.085977892592</v>
+        <v>2277.78854448927</v>
       </c>
       <c r="V26" t="n">
-        <v>2017.085977892592</v>
+        <v>1946.725657145699</v>
       </c>
       <c r="W26" t="n">
-        <v>2017.085977892592</v>
+        <v>1593.957001875585</v>
       </c>
       <c r="X26" t="n">
-        <v>2017.085977892592</v>
+        <v>1220.491243614505</v>
       </c>
       <c r="Y26" t="n">
-        <v>1626.94664591678</v>
+        <v>1220.491243614505</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>360.4464575649937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>191.4466573033261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036445</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629041</v>
+        <v>65.05843098304948</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1920.409918978289</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C29" t="n">
-        <v>1551.447402037877</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D29" t="n">
-        <v>1193.181703431127</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E29" t="n">
-        <v>807.3934508328825</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>396.407546043275</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6496,19 +6496,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.220558942349</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.157671598778</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1958.389016328664</v>
       </c>
       <c r="X29" t="n">
-        <v>2697.149091018222</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="Y29" t="n">
-        <v>2307.009759042411</v>
+        <v>1584.923258067584</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6560,7 +6560,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>2653.39368350394</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X31" t="n">
-        <v>2425.404132605923</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y31" t="n">
-        <v>2204.611553462393</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.9054987607761</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C32" t="n">
-        <v>53.94298182036445</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036445</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6706,7 +6706,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U32" t="n">
-        <v>2256.941971675474</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V32" t="n">
-        <v>1925.879084331904</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W32" t="n">
-        <v>1573.11042906179</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X32" t="n">
-        <v>1199.64467080071</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y32" t="n">
-        <v>809.505338824898</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6788,16 +6788,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X34" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1280.556556803303</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C35" t="n">
-        <v>1280.556556803303</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.556556803303</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E35" t="n">
-        <v>894.7683042050585</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="F35" t="n">
-        <v>483.7823994154509</v>
+        <v>446.1007170861369</v>
       </c>
       <c r="G35" t="n">
-        <v>65.8185913136378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>65.8185913136378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2057.295728843236</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X35" t="n">
-        <v>2057.295728843236</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y35" t="n">
-        <v>1667.156396867425</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="36">
@@ -7028,13 +7028,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.9958041606071</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C37" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7140,7 +7140,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1168.064026826587</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>799.1015098861748</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>799.1015098861748</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>799.1015098861748</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2649.331844471171</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2318.2689571276</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2318.2689571276</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1944.80319886652</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1554.663866890708</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.5382038240415</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1075.055971578407</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C41" t="n">
-        <v>1075.055971578407</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D41" t="n">
-        <v>1075.055971578407</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E41" t="n">
-        <v>1075.055971578407</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>664.0700667888</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V41" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W41" t="n">
-        <v>1838.661061815299</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X41" t="n">
-        <v>1465.195303554219</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y41" t="n">
-        <v>1075.055971578407</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7502,31 +7502,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E43" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>343.360151857325</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1595.875667274027</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C44" t="n">
-        <v>1595.875667274027</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D44" t="n">
-        <v>1595.875667274027</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7678,22 +7678,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2372.61483931396</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2372.61483931396</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="V44" t="n">
-        <v>2372.61483931396</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="W44" t="n">
-        <v>2372.61483931396</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="X44" t="n">
-        <v>2372.61483931396</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="Y44" t="n">
-        <v>1982.475507338148</v>
+        <v>1237.316979272338</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>53.94298182036445</v>
@@ -7739,31 +7739,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7839,13 +7839,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
         <v>53.94298182036445</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>249.0068850502525</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063436</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>234.0901525809383</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>140.7160931202018</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093847</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>381.709495280812</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>134.292646620523</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928319</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,25 +22552,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>171.9232912582848</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>148.7528793157565</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.5926628167762</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>162.313313380569</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>26.47520855312681</v>
       </c>
       <c r="V5" t="n">
-        <v>83.18952610899251</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>144.5258776968325</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.55502589644276</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22925,10 +22925,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>7.132250799777211</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>30.90278869470075</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>202.924692362643</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,28 +23023,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>102.030857819341</v>
+        <v>308.9584003522849</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901636</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>118.6883361205952</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>106.6637379862505</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>67.32549461272768</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>8.11441070893386</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>167.5946525333121</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>263.7048426883376</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>147.7721088551464</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>129.5185199959772</v>
       </c>
       <c r="F13" t="n">
-        <v>103.6700396525342</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>54.40502554674151</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>89.8485512244892</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>198.6068711347913</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>94.98550112519422</v>
       </c>
     </row>
     <row r="18">
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>118.5640348356351</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>49.80904827649567</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>31.89363690721254</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>88.66117486369768</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>46.83478528866341</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24180,13 +24180,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>134.9816346245719</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>161.4619260715488</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>38.78521939305905</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
         <v>45.19995918853701</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>150.5043959800019</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>23.30412125535599</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>226.9212596112558</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>168.8276855108791</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>65.24220930220012</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24736,19 +24736,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>196.8449207531749</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24894,19 +24894,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>243.2051448974518</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>31.86743971662639</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>92.07770895168323</v>
       </c>
     </row>
     <row r="33">
@@ -25131,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>25.54801210768028</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>140.1744628465206</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,10 +25447,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>203.8850934267082</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.19271039829698</v>
+        <v>171.4429748595358</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25605,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>154.4873503716432</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>133.681128666401</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,16 +25839,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>260.9659688251155</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.0535265542215</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>7.301851955827487</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457120.4842963798</v>
+        <v>485850.73335734</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>460143.5209340464</v>
+        <v>778370.5146468754</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>475826.4846459028</v>
+        <v>778370.5146468754</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468752</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778370.5146468756</v>
+        <v>778370.5146468754</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468752</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778370.5146468752</v>
+        <v>778370.5146468754</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778370.5146468756</v>
+        <v>778370.5146468752</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778370.5146468756</v>
+        <v>778370.5146468754</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468756</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149544.6052781992</v>
+        <v>159463.6497950859</v>
       </c>
       <c r="C2" t="n">
-        <v>150588.1755146547</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="D2" t="n">
-        <v>156006.1355264978</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141816</v>
@@ -26328,10 +26328,10 @@
         <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="H2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="H2" t="n">
-        <v>260237.3490141815</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
@@ -26346,7 +26346,7 @@
         <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141815</v>
       </c>
       <c r="N2" t="n">
         <v>260237.3490141816</v>
@@ -26355,7 +26355,7 @@
         <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>440708.0835147455</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753535</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>72254.69487113912</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>102466.1171957466</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847362</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25282.26821261927</v>
+        <v>25384.5047005482</v>
       </c>
       <c r="C4" t="n">
-        <v>25293.26066533936</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="D4" t="n">
-        <v>25338.71079138016</v>
+        <v>27086.83710496503</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
       </c>
       <c r="F4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="G4" t="n">
         <v>27086.83710496504</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4788.363229729504</v>
+        <v>-55062.52846037997</v>
       </c>
       <c r="C6" t="n">
-        <v>72225.98554193179</v>
+        <v>-296485.0634147576</v>
       </c>
       <c r="D6" t="n">
-        <v>58168.03037074897</v>
+        <v>144223.020099988</v>
       </c>
       <c r="E6" t="n">
-        <v>-223801.4038377672</v>
+        <v>177850.6200999879</v>
       </c>
       <c r="F6" t="n">
-        <v>183919.0338458071</v>
+        <v>177850.6200999879</v>
       </c>
       <c r="G6" t="n">
-        <v>183919.0338458071</v>
+        <v>177850.620099988</v>
       </c>
       <c r="H6" t="n">
-        <v>183919.033845807</v>
+        <v>177850.6200999879</v>
       </c>
       <c r="I6" t="n">
-        <v>183919.0338458071</v>
+        <v>177850.6200999879</v>
       </c>
       <c r="J6" t="n">
-        <v>120859.0912467009</v>
+        <v>105595.9252288488</v>
       </c>
       <c r="K6" t="n">
-        <v>183005.77804335</v>
+        <v>75384.50290424124</v>
       </c>
       <c r="L6" t="n">
-        <v>179191.4707269598</v>
+        <v>177850.620099988</v>
       </c>
       <c r="M6" t="n">
-        <v>81484.91615517194</v>
+        <v>177850.6200999878</v>
       </c>
       <c r="N6" t="n">
-        <v>183919.0338458071</v>
+        <v>177850.6200999879</v>
       </c>
       <c r="O6" t="n">
-        <v>183919.0338458071</v>
+        <v>177850.6200999879</v>
       </c>
       <c r="P6" t="n">
-        <v>183919.0338458071</v>
+        <v>177850.620099988</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545555</v>
@@ -26816,10 +26816,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33951979354706</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="D4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028889</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>398.1307590521999</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028889</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028889</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>126.808425193966</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>104.8036895137028</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.10423162760989</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>9.770660483715774</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N14" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35740,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36682,10 +36682,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245897</v>
@@ -36928,10 +36928,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L35" t="n">
         <v>421.5361394435301</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245897</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
